--- a/rrd/AppData/AccountAllocation.xlsx
+++ b/rrd/AppData/AccountAllocation.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23231"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\RRDNewarg\rrd\AppData\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Admin\git\RRD_Anshu\rrd\AppData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7DEF2A17-5ECF-4D9F-BECC-0DA8CEA643C6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{06C82EE6-8476-4F9C-9997-DCE6830D3A16}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" firstSheet="4" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="19416" windowHeight="10416" firstSheet="9" activeTab="11" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="AccountAllocation1" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="447" uniqueCount="106">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="475" uniqueCount="112">
   <si>
     <t>AccountName</t>
   </si>
@@ -355,6 +355,24 @@
   </si>
   <si>
     <t>Construction</t>
+  </si>
+  <si>
+    <t>ExpectedResultAfterDistribution</t>
+  </si>
+  <si>
+    <t>ToBeAssignedAfterdistribution</t>
+  </si>
+  <si>
+    <t>4</t>
+  </si>
+  <si>
+    <t>AccountConfig</t>
+  </si>
+  <si>
+    <t>Accountconfig2</t>
+  </si>
+  <si>
+    <t>5</t>
   </si>
 </sst>
 </file>
@@ -428,13 +446,15 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
+    <xf numFmtId="49" fontId="1" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -715,10 +735,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:G2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="G1" sqref="G1:G2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -728,9 +748,10 @@
     <col min="4" max="4" width="17.44140625" customWidth="1"/>
     <col min="5" max="5" width="17.88671875" customWidth="1"/>
     <col min="6" max="6" width="24.21875" customWidth="1"/>
+    <col min="7" max="7" width="19.21875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -749,8 +770,11 @@
       <c r="F1" s="2" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G1" s="2" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>3</v>
       </c>
@@ -759,6 +783,9 @@
       </c>
       <c r="D2" s="3" t="s">
         <v>67</v>
+      </c>
+      <c r="G2" t="s">
+        <v>110</v>
       </c>
     </row>
   </sheetData>
@@ -770,10 +797,10 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{341CAC97-156A-418B-924A-FD29A74F80F9}">
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+      <selection activeCell="G1" sqref="G1:H1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -783,9 +810,11 @@
     <col min="4" max="4" width="17.44140625" customWidth="1"/>
     <col min="5" max="5" width="17.33203125" customWidth="1"/>
     <col min="6" max="6" width="19.6640625" customWidth="1"/>
+    <col min="7" max="7" width="31.33203125" customWidth="1"/>
+    <col min="8" max="8" width="29.5546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -804,8 +833,14 @@
       <c r="F1" s="1" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G1" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="H1" s="6" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>12</v>
       </c>
@@ -824,8 +859,14 @@
       <c r="F2" s="5" t="s">
         <v>74</v>
       </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G2" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="H2" s="7" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>53</v>
       </c>
@@ -844,8 +885,14 @@
       <c r="F3" s="5" t="s">
         <v>75</v>
       </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G3" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="H3" s="7" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>54</v>
       </c>
@@ -864,8 +911,14 @@
       <c r="F4" s="5" t="s">
         <v>76</v>
       </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G4" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="H4" s="7" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>55</v>
       </c>
@@ -884,8 +937,14 @@
       <c r="F5" s="5" t="s">
         <v>77</v>
       </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G5" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="H5" s="7" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>56</v>
       </c>
@@ -902,6 +961,12 @@
         <v>95</v>
       </c>
       <c r="F6" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="G6" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="H6" s="7" t="s">
         <v>77</v>
       </c>
     </row>
@@ -915,7 +980,7 @@
   <dimension ref="A1:G6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1063,8 +1128,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8FBF9402-8AA9-413B-95A7-397B6BD8590F}">
   <dimension ref="A1:G6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F4" sqref="F4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1363,7 +1428,7 @@
   <dimension ref="A1:F5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+      <selection activeCell="G1" sqref="G1:G1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1476,6 +1541,7 @@
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -1485,7 +1551,7 @@
   <dimension ref="A1:G7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+      <selection activeCell="H1" sqref="H1:H1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1776,7 +1842,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6D4B2A41-8A1C-449F-B0CA-33C23C80E236}">
   <dimension ref="A1:F6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
@@ -2337,10 +2403,10 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CDA81170-3C5B-4F53-BAF1-2C80E56ECB4D}">
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+      <selection activeCell="H7" sqref="H7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2350,9 +2416,11 @@
     <col min="4" max="4" width="18.77734375" customWidth="1"/>
     <col min="5" max="5" width="19.21875" customWidth="1"/>
     <col min="6" max="6" width="22.5546875" customWidth="1"/>
+    <col min="7" max="7" width="25.21875" customWidth="1"/>
+    <col min="8" max="8" width="27.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2371,8 +2439,14 @@
       <c r="F1" s="1" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G1" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="H1" s="6" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>11</v>
       </c>
@@ -2391,8 +2465,14 @@
       <c r="F2" s="5" t="s">
         <v>74</v>
       </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G2" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="H2" s="5" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>48</v>
       </c>
@@ -2411,8 +2491,14 @@
       <c r="F3" s="5" t="s">
         <v>75</v>
       </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G3" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="H3" s="5" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>49</v>
       </c>
@@ -2431,8 +2517,14 @@
       <c r="F4" s="5" t="s">
         <v>76</v>
       </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G4" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="H4" s="5" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>50</v>
       </c>
@@ -2451,8 +2543,14 @@
       <c r="F5" s="5" t="s">
         <v>77</v>
       </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G5" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="H5" s="5" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>51</v>
       </c>
@@ -2471,8 +2569,14 @@
       <c r="F6" s="5" t="s">
         <v>77</v>
       </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G6" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="H6" s="5" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>52</v>
       </c>
@@ -2489,6 +2593,12 @@
         <v>94</v>
       </c>
       <c r="F7" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="G7" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="H7" s="5" t="s">
         <v>77</v>
       </c>
     </row>
